--- a/SpMedGroup/Modelos Propostos/Modelo_Dados.xlsx
+++ b/SpMedGroup/Modelos Propostos/Modelo_Dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adminlocal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renan\Desktop\Estudos de BD\SpMedGroup\Modelos Propostos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E771BDDF-C71C-485E-B6ED-369D51E9E5E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC8B138-2D12-49FE-9A1D-C1FAABC6ADC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7860" windowHeight="7464" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Especialidades" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
   <si>
     <t>86.400.902/0001-30</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>65463-SP</t>
+  </si>
+  <si>
+    <t>Av. Barão Limeir+I2a, 532, São Paulo, SP</t>
   </si>
 </sst>
 </file>
@@ -789,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -855,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -924,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1136,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
